--- a/data_voor_swing/aggregatietabellen/gemeente_streekwerking.xlsx
+++ b/data_voor_swing/aggregatietabellen/gemeente_streekwerking.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3262,19 +3262,9 @@
     </row>
     <row r="288" spans="1:2" s="0" outlineLevel="0">
       <c r="A288" s="23">
-        <v>99993</v>
+        <v>99999</v>
       </c>
       <c r="B288" t="inlineStr">
-        <is>
-          <t>sw93</t>
-        </is>
-      </c>
-    </row>
-    <row r="289" spans="1:2" s="0" outlineLevel="0">
-      <c r="A289" s="23">
-        <v>99999</v>
-      </c>
-      <c r="B289" t="inlineStr">
         <is>
           <t>sw99</t>
         </is>
